--- a/evaluation_results.xlsx
+++ b/evaluation_results.xlsx
@@ -517,7 +517,7 @@
         <v>0.9017088709646538</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2305498759330216</v>
+        <v>0.6396407850239307</v>
       </c>
     </row>
     <row r="3">
@@ -576,7 +576,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'query': 'How is HIV transmitted?', 'result': 'HIV can spread through certain body fluids like blood, semen, vaginal fluids, rectal fluids, and breast milk. Common ways it transmits include unprotected sex, sharing needles, and from mother to baby during birth or breastfeeding. HIV cannot be transmitted through mosquito bites, insects, toilet seats, or swimming pools.'}</t>
+          <t>{'query': 'How is HIV transmitted?', 'result': 'HIV can spread through certain body fluids like blood, semen, vaginal fluids, rectal fluids, and breast milk. Common ways it transmits include unprotected sex, sharing needles, and from mother to baby during birth or breastfeeding. HIV cannot be transmitted through mosquito bites, toilet seats, or swimming pools.'}</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -597,7 +597,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2371649029165658</v>
+        <v>0.2386700371459786</v>
       </c>
     </row>
     <row r="5">
@@ -616,7 +616,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'query': 'What are the stages of HIV infection?', 'result': 'There are three stages of HIV infection: Acute HIV Infection, Chronic HIV Infection (clinical latency), and AIDS. Acute HIV Infection occurs 2-4 weeks after getting the virus, Chronic HIV Infection is when the virus is still active but reproduces at low levels, and AIDS is the final stage where the immune system is badly damaged. Symptoms vary in each stage.'}</t>
+          <t>{'query': 'What are the stages of HIV infection?', 'result': 'There are three stages of HIV infection: Acute HIV Infection, Chronic HIV Infection (clinical latency), and AIDS. Acute HIV Infection occurs 2-4 weeks after getting the virus, while AIDS is the final stage where the immune system is severely damaged. HIV (Human Immunodeficiency Virus) attacks the immune system, while AIDS (Acquired Immunodeficiency Syndrome) is the most severe stage of HIV infection.'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -631,13 +631,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7110491754097759</v>
+        <v>0.6571907468598931</v>
       </c>
     </row>
     <row r="6">
@@ -656,7 +656,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'query': 'What is PrEP?', 'result': 'PrEP, or Pre-Exposure Prophylaxis, is a preventive treatment for individuals at higher risk of HIV exposure. It involves taking medication to prevent the virus from establishing an infection if exposed. PrEP is recommended for those with multiple sexual partners, MSM, people who inject drugs, and others at risk of HIV exposure.'}</t>
+          <t>{'query': 'What is PrEP?', 'result': 'PrEP, or Pre-Exposure Prophylaxis, is a preventive treatment for individuals at risk of HIV exposure. It involves taking medication to prevent the virus from establishing an infection if exposed. PrEP is recommended for those with a higher likelihood of HIV exposure, such as individuals with an HIV-positive partner or those engaging in risky behaviors.'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.8055555555287036</v>
+        <v>0.999999999975</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>0.9999999999999996</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9909959468721927</v>
+        <v>0.2419161899995791</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
         <v>0.9999999999999997</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5399342027050089</v>
+        <v>0.2399342027050088</v>
       </c>
     </row>
     <row r="8">
@@ -736,7 +736,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'query': 'What do I do if family members find out I’m on PrEP?', 'result': "If family members find out you're on PrEP, stay calm and explain that it's a medication to prevent HIV. Address their concerns by answering questions and providing information. Seek support from a trusted friend, healthcare provider, or counselor if needed."}</t>
+          <t>{'query': 'What do I do if family members find out I’m on PrEP?', 'result': "If family members find out you're on PrEP, stay calm and explain that it's a medication to prevent HIV. Address their concerns by answering questions and seeking support if needed. Choose a calm, private moment to have the conversation and provide resources for them to learn more about PrEP."}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -752,10 +752,10 @@
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0.9904303536306726</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2392094813501418</v>
+        <v>0.2379868473404178</v>
       </c>
     </row>
     <row r="9">
@@ -774,7 +774,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'query': 'What is the schedule for injectable PrEP doses?', 'result': "The schedule for injectable PrEP doses involves receiving a 600mg shot of cabotegravir in your gluteal muscle initially, followed by another 600mg shot one month later. After the first two shots, you should receive a 600mg injection every 8 weeks (2 months), with a +/- 7-day window considered on time. It is important to follow your healthcare provider's schedule for continuous protection."}</t>
+          <t>{'query': 'What is the schedule for injectable PrEP doses?', 'result': "The schedule for injectable PrEP doses involves receiving a 600mg shot of cabotegravir in your gluteal muscle, followed by another 600mg shot one month later. After the initial two shots, you should receive a 600mg injection every 8 weeks (2 months), with a +/- 7-day window considered on time. It is important to follow your healthcare provider's schedule for continuous protection."}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -793,7 +793,7 @@
         <v>0.9999999999999991</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9829321527054308</v>
+        <v>0.9833981526058392</v>
       </c>
     </row>
   </sheetData>
